--- a/VersionRecords/Version 3.4.3.5/版本Bug和特性计划及评审表v3.4.3.5_马丁组.xlsx
+++ b/VersionRecords/Version 3.4.3.5/版本Bug和特性计划及评审表v3.4.3.5_马丁组.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitDoc\Mogo_Doc\VersionRecords\Version 3.4.3.4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitDoc\Mogo_Doc\VersionRecords\Version 3.4.3.5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -221,18 +221,6 @@
     <t>新增</t>
   </si>
   <si>
-    <t>sysconfig.zhima.zhima_sdk_appId
-sysconfig.zhima.zhima_sdk_privateKey
-sysconfig.zhima.zhima_sdk_publicKey
-sysconfig.zhima.zhima_sdk_contractFlag
-sysconfig.zhima.zhima_sdk_productCode
-sysconfig.zhima.zhima_gatewayUrl
-sysconfig.zhima.zhima_channel
-sysconfig.zhima.zhima_platForm
-sysconfig.zhima.zhima_score_productId</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>生产环境</t>
   </si>
   <si>
@@ -245,6 +233,14 @@
   </si>
   <si>
     <t>芝麻信用</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>sysconfig.zhima.zhima_sdk_appId=1000592
+sysconfig.zhima.zhima_sdk_privateKey=MIIEvQIBADANBgkqhkiG9w0BAQEFAASCBKcwggSjAgEAAoIBAQCrFMEswB7jCttwn0D0b1I+EHsJJc3dXb/lHkT3lxwZQWqWFQq7ROO3ohhwgN8kAH8wUJ8+KBgyfibpntytXathG6fzEjoTRzXuLPthu4yVuhKD2p+FxvkNyUloesfVbRydOjwxCQwZ6DqFwfrszK3lrXYFjQ8DMuJ9v92dOd5fx6FoChwpDa6VR7tdn0NfSR15y2hBpIv7moIAEwPFYq65ebIrwOSmrKBk6r8jcROIXMwzHM7fF1kpnEWr9pEEcjdhL6dA+T1ZOoQsdKtOaau785NpCg7WSG8PBHcvB+VNGEXCQUVS5xHW4zmBOzPIf7sYJh/s/XlTsOMlbCBi5HeBAgMBAAECggEAVJTJQKenXZaTkSWbBn43Ceo5+fbPxb7AzbTeYg46XR4jZRn4GUfg0Xv5Wz3LlFAOkcN6R0+pTuVhtaTN84RY44S5zwnW3osZVay1h8cipS++UaP3tDsADNnUSixRuenc+Lq+4XtYmUJgFJsnxIUZAHF25R2tK2av5X3DQiVHFNCdwcmp96lmzjb2md1Z5WEAtZNUPDk95n5V6E9jlFGZLtOa0m5ySDZi9cc1TD7xsTEpzzn+FT5jMuHX/65hGLWkN6cnCJZ/FS79S82L5hqLsRNTcwuAox3hf4Qbzf2GkV0bE8IP0GIxct/3o7gb3C7tj39lMryL6/OCOaL7fXfHMQKBgQDTSMmsYnW7cDouPcDoRqfYG8RasJM8lEY+KzFl0wJxVfqJb4I5DmpsAfYOoPWJHBGsSVdnsoPe0FOFsXrIKWXstQcax0GUZgTKan/pFe+ASu+k5l2mp2F37rHJ4wwcA2kB/d5skzrmWkOpfnvtnlxt5ji9Hrh9fotfDCSk9Qyp7QKBgQDPScmNZuLM0e+z6WxYsEQ+dxTPY7A+2me83JssMMzd1q/bD3a87KDFLcXeHFIj1+f1laCK3nKG/PwGOtuaBpmwOsCnNucHbLn+CCBDjgB+/VItz2yPwyT3qxVQuFnV09wXaXvviiChvYrdo/P8I04ihLbXBTcIhIV86mSiw7mBZQKBgF2KkTcP1F3q3udQEdMETRUhnfokyNr+LmchylnxZNh2n1gvlTDbkARHjf+GBY7xbWWghuDzKO0BwKilHd32bhixQPb7Fq6zyBUxt3Wjb4iWJKkWEIpS+pUViYL/UYIphFkMY2ggeug3OFOXGxjljrhdP+uC6V0uJFgtUR/zGes1AoGBAJbnIqGcCvQMyTHydnvCJoxK6I1qBz5ahTbKavSquhmtVuxkv44dvZSOFAP0HiAV57mzKeKuujVnKpnmc0QYFf5jZyjUITAYiPZUOBi14cqQ5CiRXnjyGZFrrOLMsimmSA2LLzxdFBBrChL8bnxZv2IFt42lMEE1KHCdupF7Zyq5AoGAED28zdHFjCGIBoIf7SuKN6liXtiRbPNmsSf+Fftxk5IsPxcLSDZOBLgsFgLKJY4ty5BoSXJX00lfbg1q/AXILkLV+7DAbTH2U1QYUyFE6jjt7K6OniEYH4HmgN0GeB19A/1HkiIkfxEqwyB0fw9mS7t3LWxzqcfd1z3yKVwCWWo=
+sysconfig.zhima.zhima_sdk_publicKey=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAoBzWKwnxX48v+ULStJEZoC+ZAvpDH+eyuU3bgT4XR6d14ke5aadXPa3awBprSTVGEgIxbKnls4zQ5lWF9UnjgLgUAqbgz4A+o2jUSosLUOB6u+xaurzTKSpOON1v5AWhsFbGa3oXC0GWgzHjqq/9aE6M7MuV6aNcwkV3KYv+d80jekHWtYgB9SGZo6hFN1fNhQDtr1ZuY3rsV2d5zPl/87y8rIQfbI2fbl7lClawyW/PxtyCFcip+fbR/Rjr2uVK7BzqKPRjtFiLoeOeRR0nuH+rDSAtVy/O6ftOcXWE7UZDmxSGj1Q/ALuS/ssQ7v1F+0lusexGWVEyiGO62jVk2QIDAQAB
+sysconfig.zhima.zhima_sdk_contractFlag=si201607290001590007
+sysconfig.zhima.zhima_sdk_productCode=w1010100400000000001</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
@@ -5181,7 +5177,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5192,7 +5188,7 @@
     <col min="4" max="4" width="12.25" style="2" customWidth="1"/>
     <col min="5" max="5" width="21" style="2" customWidth="1"/>
     <col min="6" max="6" width="9.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="82.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="140.625" style="2" customWidth="1"/>
     <col min="8" max="8" width="25.75" customWidth="1"/>
     <col min="9" max="9" width="13.625" customWidth="1"/>
     <col min="10" max="10" width="9.875" style="3" customWidth="1"/>
@@ -6093,7 +6089,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="297" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -6113,19 +6109,19 @@
         <v>59</v>
       </c>
       <c r="G4" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="K4" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>63</v>
       </c>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>

--- a/VersionRecords/Version 3.4.3.5/版本Bug和特性计划及评审表v3.4.3.5_马丁组.xlsx
+++ b/VersionRecords/Version 3.4.3.5/版本Bug和特性计划及评审表v3.4.3.5_马丁组.xlsx
@@ -240,7 +240,11 @@
 sysconfig.zhima.zhima_sdk_privateKey=MIIEvQIBADANBgkqhkiG9w0BAQEFAASCBKcwggSjAgEAAoIBAQCrFMEswB7jCttwn0D0b1I+EHsJJc3dXb/lHkT3lxwZQWqWFQq7ROO3ohhwgN8kAH8wUJ8+KBgyfibpntytXathG6fzEjoTRzXuLPthu4yVuhKD2p+FxvkNyUloesfVbRydOjwxCQwZ6DqFwfrszK3lrXYFjQ8DMuJ9v92dOd5fx6FoChwpDa6VR7tdn0NfSR15y2hBpIv7moIAEwPFYq65ebIrwOSmrKBk6r8jcROIXMwzHM7fF1kpnEWr9pEEcjdhL6dA+T1ZOoQsdKtOaau785NpCg7WSG8PBHcvB+VNGEXCQUVS5xHW4zmBOzPIf7sYJh/s/XlTsOMlbCBi5HeBAgMBAAECggEAVJTJQKenXZaTkSWbBn43Ceo5+fbPxb7AzbTeYg46XR4jZRn4GUfg0Xv5Wz3LlFAOkcN6R0+pTuVhtaTN84RY44S5zwnW3osZVay1h8cipS++UaP3tDsADNnUSixRuenc+Lq+4XtYmUJgFJsnxIUZAHF25R2tK2av5X3DQiVHFNCdwcmp96lmzjb2md1Z5WEAtZNUPDk95n5V6E9jlFGZLtOa0m5ySDZi9cc1TD7xsTEpzzn+FT5jMuHX/65hGLWkN6cnCJZ/FS79S82L5hqLsRNTcwuAox3hf4Qbzf2GkV0bE8IP0GIxct/3o7gb3C7tj39lMryL6/OCOaL7fXfHMQKBgQDTSMmsYnW7cDouPcDoRqfYG8RasJM8lEY+KzFl0wJxVfqJb4I5DmpsAfYOoPWJHBGsSVdnsoPe0FOFsXrIKWXstQcax0GUZgTKan/pFe+ASu+k5l2mp2F37rHJ4wwcA2kB/d5skzrmWkOpfnvtnlxt5ji9Hrh9fotfDCSk9Qyp7QKBgQDPScmNZuLM0e+z6WxYsEQ+dxTPY7A+2me83JssMMzd1q/bD3a87KDFLcXeHFIj1+f1laCK3nKG/PwGOtuaBpmwOsCnNucHbLn+CCBDjgB+/VItz2yPwyT3qxVQuFnV09wXaXvviiChvYrdo/P8I04ihLbXBTcIhIV86mSiw7mBZQKBgF2KkTcP1F3q3udQEdMETRUhnfokyNr+LmchylnxZNh2n1gvlTDbkARHjf+GBY7xbWWghuDzKO0BwKilHd32bhixQPb7Fq6zyBUxt3Wjb4iWJKkWEIpS+pUViYL/UYIphFkMY2ggeug3OFOXGxjljrhdP+uC6V0uJFgtUR/zGes1AoGBAJbnIqGcCvQMyTHydnvCJoxK6I1qBz5ahTbKavSquhmtVuxkv44dvZSOFAP0HiAV57mzKeKuujVnKpnmc0QYFf5jZyjUITAYiPZUOBi14cqQ5CiRXnjyGZFrrOLMsimmSA2LLzxdFBBrChL8bnxZv2IFt42lMEE1KHCdupF7Zyq5AoGAED28zdHFjCGIBoIf7SuKN6liXtiRbPNmsSf+Fftxk5IsPxcLSDZOBLgsFgLKJY4ty5BoSXJX00lfbg1q/AXILkLV+7DAbTH2U1QYUyFE6jjt7K6OniEYH4HmgN0GeB19A/1HkiIkfxEqwyB0fw9mS7t3LWxzqcfd1z3yKVwCWWo=
 sysconfig.zhima.zhima_sdk_publicKey=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAoBzWKwnxX48v+ULStJEZoC+ZAvpDH+eyuU3bgT4XR6d14ke5aadXPa3awBprSTVGEgIxbKnls4zQ5lWF9UnjgLgUAqbgz4A+o2jUSosLUOB6u+xaurzTKSpOON1v5AWhsFbGa3oXC0GWgzHjqq/9aE6M7MuV6aNcwkV3KYv+d80jekHWtYgB9SGZo6hFN1fNhQDtr1ZuY3rsV2d5zPl/87y8rIQfbI2fbl7lClawyW/PxtyCFcip+fbR/Rjr2uVK7BzqKPRjtFiLoeOeRR0nuH+rDSAtVy/O6ftOcXWE7UZDmxSGj1Q/ALuS/ssQ7v1F+0lusexGWVEyiGO62jVk2QIDAQAB
 sysconfig.zhima.zhima_sdk_contractFlag=si201607290001590007
-sysconfig.zhima.zhima_sdk_productCode=w1010100400000000001</t>
+sysconfig.zhima.zhima_sdk_productCode=w1010100400000000001
+sysconfig.zhima.zhima_gatewayUrl=https://zmopenapi.zmxy.com.cn/openapi.do
+sysconfig.zhima.zhima_channel=apppc
+sysconfig.zhima.zhima_platForm=zmop
+sysconfig.zhima.zhima_score_productId=w1010100100000000001</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
@@ -5176,7 +5180,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -6089,7 +6093,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" ht="297" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="379.5" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -6320,5 +6324,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/VersionRecords/Version 3.4.3.5/版本Bug和特性计划及评审表v3.4.3.5_马丁组.xlsx
+++ b/VersionRecords/Version 3.4.3.5/版本Bug和特性计划及评审表v3.4.3.5_马丁组.xlsx
@@ -9,19 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="版本3.4.3.5 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
     <sheet name="数据修复" sheetId="2" r:id="rId2"/>
     <sheet name="需要修改的配置文件" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="80">
   <si>
     <t>No</t>
   </si>
@@ -247,12 +248,57 @@
 sysconfig.zhima.zhima_score_productId=w1010100100000000001</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
+  <si>
+    <t>级别</t>
+  </si>
+  <si>
+    <t>权限路径</t>
+  </si>
+  <si>
+    <t>菜单url</t>
+  </si>
+  <si>
+    <t>菜单名称</t>
+  </si>
+  <si>
+    <t>是否菜单</t>
+  </si>
+  <si>
+    <t>是否Ajax</t>
+  </si>
+  <si>
+    <t>功能类型</t>
+  </si>
+  <si>
+    <t>金融管理-芝麻信用管理</t>
+  </si>
+  <si>
+    <t>芝麻信用管理</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>bs</t>
+  </si>
+  <si>
+    <t>马丁组</t>
+  </si>
+  <si>
+    <t>金融管理-芝麻信用管理-房东芝麻信用</t>
+  </si>
+  <si>
+    <t>zmxy/findLandlordZmScore</t>
+  </si>
+  <si>
+    <t>房东芝麻信用</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -360,6 +406,11 @@
       <sz val="10"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -516,7 +567,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -648,6 +699,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -5180,8 +5234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6326,4 +6380,108 @@
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="36.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="44" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="44">
+        <v>2</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" s="44"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="44">
+        <v>3</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" s="44"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>